--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T07:12:34+00:00</t>
+    <t>2022-04-22T12:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The ValueSet contains codes for the UICC TNM stage groups ranging from I to IV to group cancer patients with similar prognosis.</t>
+    <t>The ValueSet contains codes for the TNM stage groups ranging from I to IV to group cancer patients with similar prognosis from TNM 8th edition UICC.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T12:36:42+00:00</t>
+    <t>2023-03-22T15:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-stage-group-uicc.xlsx
+++ b/ValueSet-vs-tnm-stage-group-uicc.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
